--- a/biology/Zoologie/Gobiinae/Gobiinae.xlsx
+++ b/biology/Zoologie/Gobiinae/Gobiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gobiinae sont une sous-famille de la famille des Gobiidae, regroupant certaines espèces de poissons appelés gobies.
 </t>
@@ -511,9 +523,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces gobies sont essentiellement des poissons de petite taille à cycle biologique rapide : ils grandissent vite mais s'arrêtent tôt, et se reproduisent rapidement (environ 7 générations par an). Ils peuvent ainsi vivre en très grande densité dans les récifs de corail (facilement plus de 100 par mètre carré), où ils constituent l'alimentation de base d'un grand nombre de poissons, constituant jusqu'à 60% de la biomasse de poisson consommée par les prédateurs[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces gobies sont essentiellement des poissons de petite taille à cycle biologique rapide : ils grandissent vite mais s'arrêtent tôt, et se reproduisent rapidement (environ 7 générations par an). Ils peuvent ainsi vivre en très grande densité dans les récifs de corail (facilement plus de 100 par mètre carré), où ils constituent l'alimentation de base d'un grand nombre de poissons, constituant jusqu'à 60% de la biomasse de poisson consommée par les prédateurs. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (24 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (24 décembre 2023) :
 genre Acentrogobius Bleeker, 1874
 genre Afurcagobius Gill, 1993
 genre Akko Birdsong &amp; Robins, 1995
